--- a/dist/rd3_portal.xlsx
+++ b/dist/rd3_portal.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="175">
   <si>
     <t>rd3_portal</t>
   </si>
@@ -42,12 +42,18 @@
     <t>Intermediate tables for RD3 releases</t>
   </si>
   <si>
+    <t>RD3 portal, containing data submitted by CNAG</t>
+  </si>
+  <si>
     <t>Staging tables for novel omics sample and experiment metadata (v1.4.0, 2022-02-03)</t>
   </si>
   <si>
     <t>cluster</t>
   </si>
   <si>
+    <t>demographics</t>
+  </si>
+  <si>
     <t>experiment</t>
   </si>
   <si>
@@ -69,6 +75,9 @@
     <t>Cluster Files</t>
   </si>
   <si>
+    <t>Patient Demographics</t>
+  </si>
+  <si>
     <t>Experiment</t>
   </si>
   <si>
@@ -87,6 +96,9 @@
     <t>Metadata on PED and Phenopacket files located on the cluster</t>
   </si>
   <si>
+    <t>Patient demographics submitted by CNAG</t>
+  </si>
+  <si>
     <t>Staging table for experiment metadata (manifest file)</t>
   </si>
   <si>
@@ -111,6 +123,9 @@
     <t>rd3_portal_cluster</t>
   </si>
   <si>
+    <t>rd3_portal_demographics</t>
+  </si>
+  <si>
     <t>rd3_portal_novelomics_experiment</t>
   </si>
   <si>
@@ -138,6 +153,21 @@
     <t>id</t>
   </si>
   <si>
+    <t>subjectID</t>
+  </si>
+  <si>
+    <t>experimentID</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>ethnicity</t>
+  </si>
+  <si>
+    <t>auto_id</t>
+  </si>
+  <si>
     <t>file_path</t>
   </si>
   <si>
@@ -363,6 +393,15 @@
     <t>subject_recontact</t>
   </si>
   <si>
+    <t>ExperimentID</t>
+  </si>
+  <si>
+    <t>Observed Sex</t>
+  </si>
+  <si>
+    <t>Calculated Ancestry</t>
+  </si>
+  <si>
     <t>Patch information</t>
   </si>
   <si>
@@ -381,10 +420,19 @@
     <t>Date entry was created</t>
   </si>
   <si>
+    <t>RD3 patient ID</t>
+  </si>
+  <si>
+    <t>experiment ID</t>
+  </si>
+  <si>
+    <t>Ancestry that was derived</t>
+  </si>
+  <si>
+    <t>auto generated molgenis ID</t>
+  </si>
+  <si>
     <t>Date the data was uploaded into RD3</t>
-  </si>
-  <si>
-    <t>auto generated molgenis ID</t>
   </si>
   <si>
     <t>name of the organisation. E.g. University Medical Center Groningen</t>
@@ -839,7 +887,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -847,16 +895,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -886,29 +934,40 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -919,7 +978,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -927,22 +986,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -950,27 +1009,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -978,30 +1037,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1009,16 +1065,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
         <v>29</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1026,16 +1082,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1043,16 +1099,33 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1062,7 +1135,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1070,45 +1143,45 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -1117,21 +1190,21 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -1140,21 +1213,21 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -1163,21 +1236,21 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -1186,21 +1259,21 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -1209,21 +1282,21 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -1232,18 +1305,18 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1252,15 +1325,21 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>134</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -1269,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -1277,10 +1356,16 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" t="s">
+        <v>135</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -1289,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -1297,10 +1382,16 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" t="s">
+        <v>126</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -1309,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -1317,10 +1408,16 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" t="s">
+        <v>136</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -1329,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -1337,30 +1434,36 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>137</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -1369,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
@@ -1377,10 +1480,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1389,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
@@ -1397,10 +1500,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -1409,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -1417,10 +1520,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1429,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -1437,10 +1540,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -1449,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
@@ -1457,10 +1560,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1469,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
@@ -1477,10 +1580,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -1489,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
@@ -1497,10 +1600,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1509,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
@@ -1517,10 +1620,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -1529,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
@@ -1537,10 +1640,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1549,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
@@ -1557,10 +1660,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1569,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1577,10 +1680,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1589,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
@@ -1597,10 +1700,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1609,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
@@ -1617,10 +1720,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -1629,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1637,10 +1740,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -1649,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
@@ -1657,10 +1760,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1669,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1677,10 +1780,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -1689,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H30" t="b">
         <v>1</v>
@@ -1697,10 +1800,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1709,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H31" t="b">
         <v>1</v>
@@ -1717,10 +1820,10 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1729,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H32" t="b">
         <v>1</v>
@@ -1737,10 +1840,10 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1749,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
@@ -1757,10 +1860,10 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -1769,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H34" t="b">
         <v>1</v>
@@ -1777,10 +1880,10 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
@@ -1789,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H35" t="b">
         <v>1</v>
@@ -1797,10 +1900,10 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
@@ -1809,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
@@ -1817,10 +1920,10 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
@@ -1829,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
@@ -1837,10 +1940,10 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
@@ -1849,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H38" t="b">
         <v>1</v>
@@ -1857,10 +1960,10 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
@@ -1869,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H39" t="b">
         <v>1</v>
@@ -1877,10 +1980,10 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
@@ -1889,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H40" t="b">
         <v>1</v>
@@ -1897,10 +2000,10 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
@@ -1909,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
@@ -1917,10 +2020,10 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
@@ -1929,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
@@ -1937,10 +2040,10 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
@@ -1949,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
@@ -1957,10 +2060,10 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
@@ -1969,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H44" t="b">
         <v>1</v>
@@ -1977,10 +2080,10 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
@@ -1989,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H45" t="b">
         <v>1</v>
@@ -1997,10 +2100,10 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
@@ -2009,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -2017,10 +2120,10 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
@@ -2029,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -2037,10 +2140,10 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
@@ -2049,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
@@ -2057,10 +2160,10 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
@@ -2069,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H49" t="b">
         <v>1</v>
@@ -2077,10 +2180,10 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
@@ -2089,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
@@ -2097,10 +2200,10 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
@@ -2109,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H51" t="b">
         <v>1</v>
@@ -2117,22 +2220,19 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
-      </c>
-      <c r="D52" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="E52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
@@ -2140,10 +2240,10 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
@@ -2152,41 +2252,38 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
@@ -2195,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -2203,10 +2300,10 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
@@ -2215,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H56" t="b">
         <v>1</v>
@@ -2223,19 +2320,22 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>93</v>
+      </c>
+      <c r="D57" t="s">
+        <v>138</v>
       </c>
       <c r="E57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
@@ -2243,10 +2343,10 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
@@ -2255,38 +2355,41 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="H58" t="b">
         <v>1</v>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
@@ -2295,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
@@ -2303,10 +2406,10 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
@@ -2315,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
@@ -2323,10 +2426,10 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
@@ -2335,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H62" t="b">
         <v>1</v>
@@ -2343,10 +2446,10 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B63" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
@@ -2355,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2363,10 +2466,10 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
@@ -2375,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2383,10 +2486,10 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
@@ -2395,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2403,22 +2506,19 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
-      </c>
-      <c r="D66" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="E66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2426,10 +2526,10 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
@@ -2438,67 +2538,58 @@
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B69" t="s">
-        <v>39</v>
-      </c>
-      <c r="D69" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="E69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B70" t="s">
-        <v>94</v>
-      </c>
-      <c r="D70" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
@@ -2507,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
@@ -2515,22 +2606,22 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B71" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D71" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="E71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2538,13 +2629,10 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B72" t="s">
-        <v>96</v>
-      </c>
-      <c r="D72" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
@@ -2553,67 +2641,67 @@
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="H72" t="b">
         <v>1</v>
+      </c>
+      <c r="I72" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B73" t="s">
-        <v>97</v>
-      </c>
-      <c r="D73" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B74" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="D74" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D75" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
@@ -2622,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H75" t="b">
         <v>1</v>
@@ -2630,13 +2718,13 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B76" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D76" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
@@ -2645,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2653,13 +2741,13 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B77" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D77" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
@@ -2668,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H77" t="b">
         <v>1</v>
@@ -2676,13 +2764,13 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D78" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
@@ -2691,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2699,13 +2787,13 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B79" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D79" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
@@ -2714,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H79" t="b">
         <v>1</v>
@@ -2722,13 +2810,13 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B80" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D80" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
@@ -2737,21 +2825,21 @@
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B81" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D81" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E81" t="b">
         <v>0</v>
@@ -2760,21 +2848,21 @@
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B82" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D82" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
@@ -2783,21 +2871,21 @@
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B83" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D83" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
@@ -2806,21 +2894,21 @@
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H83" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B84" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D84" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E84" t="b">
         <v>0</v>
@@ -2829,21 +2917,21 @@
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H84" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B85" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="D85" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
@@ -2852,21 +2940,21 @@
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B86" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D86" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
@@ -2875,21 +2963,21 @@
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B87" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D87" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
@@ -2898,21 +2986,21 @@
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H87" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B88" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D88" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
@@ -2921,21 +3009,21 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D89" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
@@ -2944,21 +3032,21 @@
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B90" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="D90" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
@@ -2967,21 +3055,21 @@
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H90" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B91" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D91" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
@@ -2990,21 +3078,21 @@
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H91" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B92" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="D92" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
@@ -3013,12 +3101,127 @@
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
       </c>
-      <c r="I92" t="b">
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" t="s">
+        <v>121</v>
+      </c>
+      <c r="D93" t="s">
+        <v>155</v>
+      </c>
+      <c r="E93" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+      <c r="G93" t="s">
+        <v>160</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" t="s">
+        <v>122</v>
+      </c>
+      <c r="D94" t="s">
+        <v>156</v>
+      </c>
+      <c r="E94" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s">
+        <v>160</v>
+      </c>
+      <c r="H94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" t="s">
+        <v>123</v>
+      </c>
+      <c r="D95" t="s">
+        <v>157</v>
+      </c>
+      <c r="E95" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>160</v>
+      </c>
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>33</v>
+      </c>
+      <c r="B96" t="s">
+        <v>124</v>
+      </c>
+      <c r="D96" t="s">
+        <v>158</v>
+      </c>
+      <c r="E96" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G96" t="s">
+        <v>160</v>
+      </c>
+      <c r="H96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>33</v>
+      </c>
+      <c r="B97" t="s">
+        <v>94</v>
+      </c>
+      <c r="D97" t="s">
+        <v>159</v>
+      </c>
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+      <c r="G97" t="s">
+        <v>162</v>
+      </c>
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dist/rd3_portal.xlsx
+++ b/dist/rd3_portal.xlsx
@@ -16,12 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t>rd3_portal</t>
   </si>
   <si>
-    <t>cluster</t>
+    <t>rd3_portal_cluster</t>
   </si>
   <si>
     <t>RD3 Portal Data</t>
@@ -33,7 +33,7 @@
     <t>RD3 portal, containing data submitted by CNAG (v1.1.0, 2021-10-11)</t>
   </si>
   <si>
-    <t>Extracted metadata PED and Phenopacket files stored on the cluster (v0.9.0, 2022-08-01)</t>
+    <t>Extracted metadata PED and Phenopacket files stored on the cluster (v0.9.1, 2022-08-01)</t>
   </si>
   <si>
     <t>phenopacket</t>
@@ -45,7 +45,7 @@
     <t>Extracted data from Phenopacket files</t>
   </si>
   <si>
-    <t>cluster_phenopacket</t>
+    <t>rd3_portal_cluster_phenopacket</t>
   </si>
   <si>
     <t>phenopacketsID</t>
@@ -72,7 +72,10 @@
     <t>ageOfOnset</t>
   </si>
   <si>
-    <t>subjectIdExists</t>
+    <t>subjectExists</t>
+  </si>
+  <si>
+    <t>releasesWhereSubjectExists</t>
   </si>
   <si>
     <t>unknownHpoCodes</t>
@@ -84,6 +87,9 @@
     <t>unknownOnsetCodes</t>
   </si>
   <si>
+    <t>processed</t>
+  </si>
+  <si>
     <t>Name of the Phenopacket file</t>
   </si>
   <si>
@@ -108,6 +114,9 @@
     <t>An indication if the subject exists in RD3</t>
   </si>
   <si>
+    <t>If the subject exists, which release</t>
+  </si>
+  <si>
     <t>A comma-separated string of all unknown HPO codes</t>
   </si>
   <si>
@@ -117,9 +126,15 @@
     <t>A comma-separated string of all unknown onset codes</t>
   </si>
   <si>
+    <t>An indication if the data has been imported into RD3 somewhere</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
     <t>bool</t>
   </si>
   <si>
@@ -130,6 +145,9 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>parent</t>
   </si>
   <si>
     <t>package</t>
@@ -500,24 +518,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -528,7 +549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -537,6 +558,9 @@
       </c>
       <c r="C3" t="s">
         <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -554,16 +578,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -587,7 +611,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -595,31 +619,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -630,7 +654,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -639,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -656,10 +680,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -676,10 +700,10 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -696,10 +720,10 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -716,10 +740,10 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -736,10 +760,10 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -756,10 +780,10 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -776,10 +800,10 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -796,10 +820,10 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -819,10 +843,10 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -839,10 +863,10 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -859,15 +883,58 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dist/rd3_portal.xlsx
+++ b/dist/rd3_portal.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>rd3_portal</t>
   </si>
@@ -33,7 +33,7 @@
     <t>RD3 portal, containing data submitted by CNAG (v1.1.0, 2021-10-11)</t>
   </si>
   <si>
-    <t>Extracted metadata PED and Phenopacket files stored on the cluster (v0.9.1, 2022-08-01)</t>
+    <t>Extracted metadata PED and Phenopacket files stored on the cluster (v0.9.2, 2022-08-02)</t>
   </si>
   <si>
     <t>phenopacket</t>
@@ -51,6 +51,9 @@
     <t>phenopacketsID</t>
   </si>
   <si>
+    <t>clusterRelease</t>
+  </si>
+  <si>
     <t>subjectID</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
   </si>
   <si>
     <t>Name of the Phenopacket file</t>
+  </si>
+  <si>
+    <t>the release, on the cluster, where the data comes from</t>
   </si>
   <si>
     <t>RD3 subject identifier</t>
@@ -526,16 +532,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -578,16 +584,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -611,7 +617,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -619,31 +625,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -654,7 +660,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -663,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -680,10 +686,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -700,10 +706,10 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -720,10 +726,10 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -740,10 +746,10 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -760,10 +766,10 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -780,10 +786,10 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -800,10 +806,10 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -820,7 +826,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
         <v>39</v>
@@ -831,9 +837,6 @@
       <c r="H10" t="b">
         <v>0</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
@@ -843,15 +846,18 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -863,10 +869,10 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -883,10 +889,10 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -903,10 +909,10 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -923,10 +929,10 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -934,7 +940,27 @@
       <c r="H15" t="b">
         <v>0</v>
       </c>
-      <c r="I15" t="b">
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dist/rd3_portal.xlsx
+++ b/dist/rd3_portal.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="80">
   <si>
     <t>rd3_portal</t>
   </si>
@@ -33,21 +33,33 @@
     <t>RD3 portal, containing data submitted by CNAG (v1.1.0, 2021-10-11)</t>
   </si>
   <si>
-    <t>Extracted metadata PED and Phenopacket files stored on the cluster (v0.9.2, 2022-08-02)</t>
+    <t>Extracted metadata PED and Phenopacket files stored on the cluster (v1.0.0, 2022-08-08)</t>
   </si>
   <si>
     <t>phenopacket</t>
   </si>
   <si>
+    <t>ped</t>
+  </si>
+  <si>
     <t>Phenopacket</t>
   </si>
   <si>
+    <t>PED</t>
+  </si>
+  <si>
     <t>Extracted data from Phenopacket files</t>
   </si>
   <si>
+    <t>Extracted data from PED files</t>
+  </si>
+  <si>
     <t>rd3_portal_cluster_phenopacket</t>
   </si>
   <si>
+    <t>rd3_portal_cluster_ped</t>
+  </si>
+  <si>
     <t>phenopacketsID</t>
   </si>
   <si>
@@ -93,6 +105,39 @@
     <t>processed</t>
   </si>
   <si>
+    <t>rowID</t>
+  </si>
+  <si>
+    <t>pedID</t>
+  </si>
+  <si>
+    <t>fid</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>pid</t>
+  </si>
+  <si>
+    <t>clinical_status</t>
+  </si>
+  <si>
+    <t>unknownMID</t>
+  </si>
+  <si>
+    <t>unknownPID</t>
+  </si>
+  <si>
+    <t>unknownSexCodes</t>
+  </si>
+  <si>
+    <t>unknownClinicalStatus</t>
+  </si>
+  <si>
+    <t>upload</t>
+  </si>
+  <si>
     <t>Name of the Phenopacket file</t>
   </si>
   <si>
@@ -135,6 +180,36 @@
     <t>An indication if the data has been imported into RD3 somewhere</t>
   </si>
   <si>
+    <t>an auto generated ID</t>
+  </si>
+  <si>
+    <t>family identifier</t>
+  </si>
+  <si>
+    <t>identifier of the mother</t>
+  </si>
+  <si>
+    <t>identifier of the father</t>
+  </si>
+  <si>
+    <t>An indication of affected status</t>
+  </si>
+  <si>
+    <t>The identifier of the mother that was reported. It was either invalid or could not be found in RD3</t>
+  </si>
+  <si>
+    <t>The identifier of the father that was reported. It was either invalid or could not be found in RD3</t>
+  </si>
+  <si>
+    <t>Code that was detected in the PED file, but it does not match expected values (1,2, other)</t>
+  </si>
+  <si>
+    <t>A code that was detected in the PED file, but it does not match an expected value (-9, 0, 1,2)</t>
+  </si>
+  <si>
+    <t>If True, the raw data for this subject can be imported into RD3</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -178,6 +253,9 @@
   </si>
   <si>
     <t>defaultValue</t>
+  </si>
+  <si>
+    <t>auto</t>
   </si>
 </sst>
 </file>
@@ -532,16 +610,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -576,7 +654,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -584,16 +662,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -604,10 +682,24 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -617,350 +709,708 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="F31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="b">
+      <c r="F33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dist/rd3_portal.xlsx
+++ b/dist/rd3_portal.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="77">
   <si>
     <t>rd3_portal</t>
   </si>
@@ -42,13 +42,22 @@
     <t>patches</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>All patches</t>
   </si>
   <si>
+    <t>New Metadata</t>
+  </si>
+  <si>
     <t>Attribute template for new RD3 Data Freezes</t>
   </si>
   <si>
     <t>Staging table for all patches</t>
+  </si>
+  <si>
+    <t>New metadata that was found in the "All patches" table</t>
   </si>
   <si>
     <t>rd3_portal_release_attrTmplate</t>
@@ -592,16 +601,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -636,7 +645,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -644,22 +653,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -673,7 +682,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -687,13 +696,30 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -711,42 +737,42 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -760,16 +786,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -783,16 +809,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -806,16 +832,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -829,16 +855,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -852,16 +878,16 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -875,16 +901,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -898,16 +924,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -921,16 +947,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -944,16 +970,16 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -967,16 +993,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -990,16 +1016,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -1013,16 +1039,16 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -1036,16 +1062,16 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1059,16 +1085,16 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -1082,16 +1108,16 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1105,16 +1131,16 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -1128,16 +1154,16 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1151,16 +1177,16 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -1174,16 +1200,16 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1197,16 +1223,16 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -1220,16 +1246,16 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1243,16 +1269,16 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1266,16 +1292,16 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>

--- a/dist/rd3_portal.xlsx
+++ b/dist/rd3_portal.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="131">
   <si>
     <t>rd3_portal</t>
   </si>
@@ -33,36 +33,54 @@
     <t>RD3 portal, containing data submitted by CNAG (v1.2.0, 2022-11-29)</t>
   </si>
   <si>
-    <t>Intermediate tables for RD3 releases (v1.2.0, 2023-01-25)</t>
+    <t>Intermediate tables for RD3 releases (v1.3.0, 2023-04-05)</t>
   </si>
   <si>
     <t>attrTmplate</t>
   </si>
   <si>
+    <t>exprTemplate</t>
+  </si>
+  <si>
     <t>patches</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
+    <t>experiments</t>
+  </si>
+  <si>
     <t>All patches</t>
   </si>
   <si>
     <t>New Metadata</t>
   </si>
   <si>
+    <t>Experiments</t>
+  </si>
+  <si>
     <t>Attribute template for new RD3 Data Freezes</t>
   </si>
   <si>
+    <t>template for experiments</t>
+  </si>
+  <si>
     <t>Staging table for all patches</t>
   </si>
   <si>
     <t>New metadata that was found in the "All patches" table</t>
   </si>
   <si>
+    <t>Staging table for experiment metadata</t>
+  </si>
+  <si>
     <t>rd3_portal_release_attrTmplate</t>
   </si>
   <si>
+    <t>rd3_portal_release_exprTemplate</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -135,6 +153,138 @@
     <t>processed</t>
   </si>
   <si>
+    <t>file_path</t>
+  </si>
+  <si>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>unencrypted_md5_checksum</t>
+  </si>
+  <si>
+    <t>encrypted_md5_checksum</t>
+  </si>
+  <si>
+    <t>file_type</t>
+  </si>
+  <si>
+    <t>file_size</t>
+  </si>
+  <si>
+    <t>file_group_id</t>
+  </si>
+  <si>
+    <t>batch_id</t>
+  </si>
+  <si>
+    <t>project_experiment_dataset_id</t>
+  </si>
+  <si>
+    <t>sample_id</t>
+  </si>
+  <si>
+    <t>sample_links</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>phenotype</t>
+  </si>
+  <si>
+    <t>subject_links</t>
+  </si>
+  <si>
+    <t>sequencing_center</t>
+  </si>
+  <si>
+    <t>platform_brand</t>
+  </si>
+  <si>
+    <t>platform_model</t>
+  </si>
+  <si>
+    <t>library_source</t>
+  </si>
+  <si>
+    <t>library_selection</t>
+  </si>
+  <si>
+    <t>library_strategy</t>
+  </si>
+  <si>
+    <t>library_layout</t>
+  </si>
+  <si>
+    <t>paired_nominal_length</t>
+  </si>
+  <si>
+    <t>paired_nominal_sdev</t>
+  </si>
+  <si>
+    <t>experiment_links</t>
+  </si>
+  <si>
+    <t>analysis_center</t>
+  </si>
+  <si>
+    <t>analysis_type</t>
+  </si>
+  <si>
+    <t>sequencing_type</t>
+  </si>
+  <si>
+    <t>reference_genome</t>
+  </si>
+  <si>
+    <t>linked_object</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>imputation</t>
+  </si>
+  <si>
+    <t>analysis_links</t>
+  </si>
+  <si>
+    <t>experiment_type</t>
+  </si>
+  <si>
+    <t>tissue_type</t>
+  </si>
+  <si>
+    <t>sample_type</t>
+  </si>
+  <si>
+    <t>sub_project_name</t>
+  </si>
+  <si>
+    <t>project_batch_id</t>
+  </si>
+  <si>
+    <t>file_ega_id</t>
+  </si>
+  <si>
+    <t>run_ega_id</t>
+  </si>
+  <si>
+    <t>experiment_ega_id</t>
+  </si>
+  <si>
+    <t>sample_ega_id</t>
+  </si>
+  <si>
+    <t>date_created</t>
+  </si>
+  <si>
+    <t>molgenis_id</t>
+  </si>
+  <si>
     <t>auto generated molgenis ID</t>
   </si>
   <si>
@@ -204,10 +354,22 @@
     <t>If True, the record has been processed</t>
   </si>
   <si>
+    <t>Date the data was uploaded into RD3</t>
+  </si>
+  <si>
+    <t>indication if the the record has been processed into an RD3 release</t>
+  </si>
+  <si>
+    <t>an internal, auto generated identifier</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
     <t>bool</t>
+  </si>
+  <si>
+    <t>datetime</t>
   </si>
   <si>
     <t>name</t>
@@ -601,16 +763,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -645,7 +807,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -653,22 +815,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -682,7 +844,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -695,14 +857,11 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -713,13 +872,47 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
-        <v>14</v>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -729,7 +922,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -737,42 +930,42 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -786,16 +979,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -809,16 +1002,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -832,16 +1025,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -855,16 +1048,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -878,16 +1071,16 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -901,16 +1094,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -924,16 +1117,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -947,16 +1140,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -970,16 +1163,16 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -993,16 +1186,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -1016,16 +1209,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -1039,16 +1232,16 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -1062,16 +1255,16 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1085,16 +1278,16 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -1108,16 +1301,16 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1131,16 +1324,16 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -1154,16 +1347,16 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1177,16 +1370,16 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -1200,16 +1393,16 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1223,16 +1416,16 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -1246,16 +1439,16 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1269,16 +1462,16 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1292,27 +1485,959 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
         <v>61</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D43" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
         <v>63</v>
       </c>
-      <c r="E25" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="b">
+      <c r="D45" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" t="s">
+        <v>115</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" t="s">
+        <v>115</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" t="s">
+        <v>115</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" t="s">
+        <v>115</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" t="s">
+        <v>115</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" t="s">
+        <v>115</v>
+      </c>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" t="s">
+        <v>115</v>
+      </c>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D65" t="s">
+        <v>115</v>
+      </c>
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" t="s">
+        <v>115</v>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" t="s">
+        <v>85</v>
+      </c>
+      <c r="D67" t="s">
+        <v>115</v>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" t="s">
+        <v>115</v>
+      </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" t="s">
+        <v>117</v>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" t="b">
+        <v>1</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" t="s">
+        <v>113</v>
+      </c>
+      <c r="D70" t="s">
+        <v>116</v>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" t="s">
+        <v>114</v>
+      </c>
+      <c r="D71" t="s">
+        <v>115</v>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71" t="b">
+        <v>1</v>
+      </c>
+      <c r="G71" t="b">
         <v>0</v>
       </c>
     </row>

--- a/dist/rd3_portal.xlsx
+++ b/dist/rd3_portal.xlsx
@@ -16,342 +16,288 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="104">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
   <si>
     <t>rd3_portal</t>
   </si>
   <si>
-    <t>rd3_portal_release</t>
+    <t>rd3_portal_novelomics</t>
   </si>
   <si>
     <t>RD3 Portal Data</t>
   </si>
   <si>
-    <t>Releases</t>
+    <t>Novel Omics</t>
   </si>
   <si>
     <t>RD3 portal, containing data submitted by CNAG (v1.2.0, 2022-11-29)</t>
   </si>
   <si>
-    <t>Intermediate tables for RD3 releases (v1.3.0, 2023-04-05)</t>
-  </si>
-  <si>
-    <t>attrTmplate</t>
-  </si>
-  <si>
-    <t>exprTemplate</t>
-  </si>
-  <si>
-    <t>patches</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>experiments</t>
-  </si>
-  <si>
-    <t>All patches</t>
-  </si>
-  <si>
-    <t>New Metadata</t>
-  </si>
-  <si>
-    <t>Experiments</t>
-  </si>
-  <si>
-    <t>Attribute template for new RD3 Data Freezes</t>
-  </si>
-  <si>
-    <t>template for experiments</t>
-  </si>
-  <si>
-    <t>Staging table for all patches</t>
-  </si>
-  <si>
-    <t>New metadata that was found in the "All patches" table</t>
-  </si>
-  <si>
-    <t>Staging table for experiment metadata</t>
-  </si>
-  <si>
-    <t>rd3_portal_release_attrTmplate</t>
-  </si>
-  <si>
-    <t>rd3_portal_release_exprTemplate</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>organisation_name</t>
-  </si>
-  <si>
-    <t>organisation_identifier</t>
-  </si>
-  <si>
-    <t>samples_tissueType</t>
-  </si>
-  <si>
-    <t>samples_id</t>
-  </si>
-  <si>
-    <t>samples_alternativeIdentifier</t>
-  </si>
-  <si>
-    <t>samples_subject</t>
-  </si>
-  <si>
-    <t>samples_organisation</t>
-  </si>
-  <si>
-    <t>samples_ERN</t>
-  </si>
-  <si>
-    <t>labinfo_library</t>
-  </si>
-  <si>
-    <t>labinfo_sequencer</t>
-  </si>
-  <si>
-    <t>labinfo_seqType</t>
-  </si>
-  <si>
-    <t>labinfo_id</t>
-  </si>
-  <si>
-    <t>labinfo_sample</t>
-  </si>
-  <si>
-    <t>labinfo_capture</t>
-  </si>
-  <si>
-    <t>labinfo_libraryType</t>
+    <t>Staging tables for novel omics sample and experiment metadata (v1.7.0, 2024-04-05)</t>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t>experiment</t>
+  </si>
+  <si>
+    <t>shipment</t>
+  </si>
+  <si>
+    <t>datasets</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Shipment</t>
+  </si>
+  <si>
+    <t>Datasets</t>
+  </si>
+  <si>
+    <t>Staging table for experiment metadata (manifest file)</t>
+  </si>
+  <si>
+    <t>Staging table for sample metadata</t>
+  </si>
+  <si>
+    <t>Link between EGA datasets and runs/analyses</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>dataType</t>
+  </si>
+  <si>
+    <t>idAttribute</t>
+  </si>
+  <si>
+    <t>nillable</t>
+  </si>
+  <si>
+    <t>defaultValue</t>
+  </si>
+  <si>
+    <t>rd3_portal_novelomics_experiment</t>
+  </si>
+  <si>
+    <t>rd3_portal_novelomics_shipment</t>
+  </si>
+  <si>
+    <t>rd3_portal_novelomics_datasets</t>
+  </si>
+  <si>
+    <t>file_path</t>
+  </si>
+  <si>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>unencrypted_md5_checksum</t>
+  </si>
+  <si>
+    <t>encrypted_md5_checksum</t>
+  </si>
+  <si>
+    <t>file_type</t>
+  </si>
+  <si>
+    <t>file_size</t>
+  </si>
+  <si>
+    <t>file_group_id</t>
+  </si>
+  <si>
+    <t>batch_id</t>
+  </si>
+  <si>
+    <t>project_experiment_dataset_id</t>
+  </si>
+  <si>
+    <t>sample_id</t>
+  </si>
+  <si>
+    <t>sample_links</t>
+  </si>
+  <si>
+    <t>gender</t>
   </si>
   <si>
     <t>subject_id</t>
   </si>
   <si>
-    <t>subject_organisation</t>
-  </si>
-  <si>
-    <t>subject_ERN</t>
-  </si>
-  <si>
-    <t>subject_solved</t>
-  </si>
-  <si>
-    <t>subject_date_solved</t>
-  </si>
-  <si>
-    <t>subject_matchMakerPermission</t>
-  </si>
-  <si>
-    <t>subject_recontact</t>
+    <t>phenotype</t>
+  </si>
+  <si>
+    <t>subject_links</t>
+  </si>
+  <si>
+    <t>sequencing_center</t>
+  </si>
+  <si>
+    <t>platform_brand</t>
+  </si>
+  <si>
+    <t>platform_model</t>
+  </si>
+  <si>
+    <t>library_source</t>
+  </si>
+  <si>
+    <t>library_selection</t>
+  </si>
+  <si>
+    <t>library_strategy</t>
+  </si>
+  <si>
+    <t>library_layout</t>
+  </si>
+  <si>
+    <t>paired_nominal_length</t>
+  </si>
+  <si>
+    <t>paired_nominal_sdev</t>
+  </si>
+  <si>
+    <t>experiment_links</t>
+  </si>
+  <si>
+    <t>analysis_center</t>
+  </si>
+  <si>
+    <t>analysis_type</t>
+  </si>
+  <si>
+    <t>sequencing_type</t>
+  </si>
+  <si>
+    <t>reference_genome</t>
+  </si>
+  <si>
+    <t>linked_object</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>imputation</t>
+  </si>
+  <si>
+    <t>analysis_links</t>
+  </si>
+  <si>
+    <t>experiment_type</t>
+  </si>
+  <si>
+    <t>tissue_type</t>
+  </si>
+  <si>
+    <t>sample_type</t>
+  </si>
+  <si>
+    <t>sub_project_name</t>
+  </si>
+  <si>
+    <t>project_batch_id</t>
+  </si>
+  <si>
+    <t>file_ega_id</t>
+  </si>
+  <si>
+    <t>run_ega_id</t>
+  </si>
+  <si>
+    <t>experiment_ega_id</t>
+  </si>
+  <si>
+    <t>sample_ega_id</t>
+  </si>
+  <si>
+    <t>analysis_ega_id</t>
+  </si>
+  <si>
+    <t>date_created</t>
   </si>
   <si>
     <t>processed</t>
   </si>
   <si>
-    <t>file_path</t>
-  </si>
-  <si>
-    <t>file_name</t>
-  </si>
-  <si>
-    <t>unencrypted_md5_checksum</t>
-  </si>
-  <si>
-    <t>encrypted_md5_checksum</t>
-  </si>
-  <si>
-    <t>file_type</t>
-  </si>
-  <si>
-    <t>file_size</t>
-  </si>
-  <si>
-    <t>file_group_id</t>
-  </si>
-  <si>
-    <t>batch_id</t>
-  </si>
-  <si>
-    <t>project_experiment_dataset_id</t>
-  </si>
-  <si>
-    <t>sample_id</t>
-  </si>
-  <si>
-    <t>sample_links</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>phenotype</t>
-  </si>
-  <si>
-    <t>subject_links</t>
-  </si>
-  <si>
-    <t>sequencing_center</t>
-  </si>
-  <si>
-    <t>platform_brand</t>
-  </si>
-  <si>
-    <t>platform_model</t>
-  </si>
-  <si>
-    <t>library_source</t>
-  </si>
-  <si>
-    <t>library_selection</t>
-  </si>
-  <si>
-    <t>library_strategy</t>
-  </si>
-  <si>
-    <t>library_layout</t>
-  </si>
-  <si>
-    <t>paired_nominal_length</t>
-  </si>
-  <si>
-    <t>paired_nominal_sdev</t>
-  </si>
-  <si>
-    <t>experiment_links</t>
-  </si>
-  <si>
-    <t>analysis_center</t>
-  </si>
-  <si>
-    <t>analysis_type</t>
-  </si>
-  <si>
-    <t>sequencing_type</t>
-  </si>
-  <si>
-    <t>reference_genome</t>
-  </si>
-  <si>
-    <t>linked_object</t>
-  </si>
-  <si>
-    <t>platform</t>
-  </si>
-  <si>
-    <t>program</t>
-  </si>
-  <si>
-    <t>imputation</t>
-  </si>
-  <si>
-    <t>analysis_links</t>
-  </si>
-  <si>
-    <t>experiment_type</t>
-  </si>
-  <si>
-    <t>tissue_type</t>
-  </si>
-  <si>
-    <t>sample_type</t>
-  </si>
-  <si>
-    <t>sub_project_name</t>
-  </si>
-  <si>
-    <t>project_batch_id</t>
-  </si>
-  <si>
-    <t>file_ega_id</t>
-  </si>
-  <si>
-    <t>run_ega_id</t>
-  </si>
-  <si>
-    <t>experiment_ega_id</t>
-  </si>
-  <si>
-    <t>sample_ega_id</t>
-  </si>
-  <si>
-    <t>date_created</t>
-  </si>
-  <si>
     <t>molgenis_id</t>
   </si>
   <si>
-    <t>auto generated molgenis ID</t>
-  </si>
-  <si>
-    <t>name of the organisation. E.g. University Medical Center Groningen</t>
-  </si>
-  <si>
-    <t>identifier of the organisation. E.g. UMCG¬†</t>
-  </si>
-  <si>
-    <t>Tissue Types</t>
-  </si>
-  <si>
-    <t>unique identifier (sampleID + patch)</t>
-  </si>
-  <si>
-    <t>alternative identifier used by sample provider</t>
-  </si>
-  <si>
-    <t>reference to the subject from which samples was extracted</t>
-  </si>
-  <si>
-    <t>Name of the organisation. E.g. University Medical Center Groningen</t>
+    <t>participant_subject</t>
+  </si>
+  <si>
+    <t>type_of_analysis</t>
+  </si>
+  <si>
+    <t>solve_rd_experiment_id</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>organisation</t>
   </si>
   <si>
     <t>ERN</t>
   </si>
   <si>
-    <t>link to more information about the library used in experiment</t>
-  </si>
-  <si>
-    <t>sequencer info</t>
-  </si>
-  <si>
-    <t>sequencing technique types (e.g., WGS, WXS)</t>
-  </si>
-  <si>
-    <t>Unique identifier (experimentID + patch)</t>
-  </si>
-  <si>
-    <t>all samples run in this condition, using the same barcode</t>
-  </si>
-  <si>
-    <t>enrichment kit</t>
-  </si>
-  <si>
-    <t>library source, e.g., Genomic/Transcriptomic</t>
-  </si>
-  <si>
-    <t>Unique identifier (subjectID + patch)</t>
-  </si>
-  <si>
-    <t>name of the organisation that submitted the subject</t>
-  </si>
-  <si>
-    <t>solved case for solve-RD (true/false)</t>
-  </si>
-  <si>
-    <t>Date case was solved</t>
-  </si>
-  <si>
-    <t>permission is given for match making (boolean)</t>
-  </si>
-  <si>
-    <t>Recontact is allowed in case of incidental findings</t>
-  </si>
-  <si>
-    <t>If True, the record has been processed</t>
+    <t>CNAG_barcode</t>
+  </si>
+  <si>
+    <t>alternative_sample_identifier</t>
+  </si>
+  <si>
+    <t>pathological_state</t>
+  </si>
+  <si>
+    <t>tumor_cell_fraction</t>
+  </si>
+  <si>
+    <t>anatomical_location</t>
+  </si>
+  <si>
+    <t>extracted_protocol</t>
+  </si>
+  <si>
+    <t>data_ega_id</t>
+  </si>
+  <si>
+    <t>run_or_analysis_ega_id</t>
+  </si>
+  <si>
+    <t>reference_type</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>bool</t>
   </si>
   <si>
     <t>Date the data was uploaded into RD3</t>
@@ -363,52 +309,25 @@
     <t>an internal, auto generated identifier</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>parent</t>
-  </si>
-  <si>
-    <t>package</t>
-  </si>
-  <si>
-    <t>abstract</t>
-  </si>
-  <si>
-    <t>extends</t>
-  </si>
-  <si>
-    <t>entity</t>
-  </si>
-  <si>
-    <t>dataType</t>
-  </si>
-  <si>
-    <t>idAttribute</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>nillable</t>
-  </si>
-  <si>
-    <t>defaultValue</t>
+    <t>The analysis that was performed; e.g., SR-WGS, Deep-WES, RNAseq, etc.</t>
+  </si>
+  <si>
+    <t>corresponding experiment identifier</t>
+  </si>
+  <si>
+    <t>the submitting institution and submitter initials</t>
+  </si>
+  <si>
+    <t>associated ERN</t>
+  </si>
+  <si>
+    <t>alternative identifiers associated with the sample</t>
+  </si>
+  <si>
+    <t>affected state of the material</t>
+  </si>
+  <si>
+    <t>the percentange of tumor cells compared to total cells present in this material</t>
   </si>
 </sst>
 </file>
@@ -424,6 +343,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -448,10 +368,18 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -460,7 +388,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -763,41 +693,41 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -807,112 +737,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +806,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -930,1515 +814,1505 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
+        <v>29</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>90</v>
+        <v>30</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>91</v>
+        <v>31</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>92</v>
+        <v>32</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>93</v>
+        <v>33</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>94</v>
+        <v>34</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
+        <v>35</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>96</v>
+        <v>36</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>97</v>
+        <v>37</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>98</v>
+        <v>38</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>99</v>
+        <v>39</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>101</v>
+        <v>41</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>102</v>
+        <v>42</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>103</v>
+        <v>43</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>104</v>
+        <v>44</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>105</v>
+        <v>45</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>106</v>
+        <v>46</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>97</v>
+        <v>47</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" t="s">
-        <v>107</v>
+        <v>48</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" t="s">
-        <v>108</v>
+        <v>49</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" t="s">
-        <v>109</v>
+        <v>50</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" t="s">
-        <v>110</v>
+        <v>51</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" t="s">
-        <v>111</v>
+        <v>52</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>53</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>54</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>55</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>56</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>57</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>59</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>60</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
       <c r="F33" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="F34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>62</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>63</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>64</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
       <c r="F37" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>65</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
       </c>
       <c r="F38" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>66</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>67</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>68</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
       <c r="F41" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>69</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
       <c r="F42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>70</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
       <c r="F43" t="b">
-        <v>0</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>71</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="b">
-        <v>0</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>72</v>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
       <c r="F45" t="b">
-        <v>0</v>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>73</v>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
       </c>
       <c r="F46" t="b">
-        <v>0</v>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="b">
-        <v>0</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>95</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
-      <c r="G48" t="b">
-        <v>1</v>
+      <c r="G48" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>38</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
       </c>
       <c r="F49" t="b">
-        <v>0</v>
-      </c>
-      <c r="G49" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>76</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
       </c>
       <c r="F50" t="b">
-        <v>0</v>
-      </c>
-      <c r="G50" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>77</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
       <c r="F51" t="b">
-        <v>0</v>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
       </c>
       <c r="F52" t="b">
-        <v>0</v>
-      </c>
-      <c r="G52" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>65</v>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
       </c>
       <c r="F53" t="b">
-        <v>0</v>
-      </c>
-      <c r="G53" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="b">
-        <v>0</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
       </c>
       <c r="F55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G55" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>80</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
       </c>
       <c r="F56" t="b">
-        <v>0</v>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>81</v>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
       </c>
       <c r="F57" t="b">
-        <v>0</v>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
       </c>
       <c r="F58" t="b">
-        <v>0</v>
-      </c>
-      <c r="G58" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
       </c>
       <c r="F59" t="b">
-        <v>0</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>84</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
       </c>
       <c r="F60" t="b">
-        <v>0</v>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>85</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
       </c>
       <c r="F61" t="b">
-        <v>0</v>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>86</v>
+      </c>
+      <c r="C62" t="b">
+        <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
       </c>
       <c r="F62" t="b">
-        <v>0</v>
-      </c>
-      <c r="G62" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>87</v>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
       <c r="F63" t="b">
-        <v>0</v>
-      </c>
-      <c r="G63" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>73</v>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
       </c>
       <c r="F64" t="b">
-        <v>0</v>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>74</v>
+      </c>
+      <c r="C65" t="b">
+        <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
       </c>
       <c r="F65" t="b">
-        <v>0</v>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>95</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
-      <c r="G66" t="b">
-        <v>1</v>
+      <c r="G66" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
       </c>
       <c r="F67" t="b">
-        <v>0</v>
-      </c>
-      <c r="G67" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
       </c>
       <c r="F68" t="b">
-        <v>0</v>
-      </c>
-      <c r="G68" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69" t="s">
-        <v>112</v>
+        <v>90</v>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
       </c>
       <c r="F69" t="b">
-        <v>1</v>
-      </c>
-      <c r="G69" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B70" t="s">
-        <v>44</v>
-      </c>
-      <c r="C70" t="s">
-        <v>113</v>
+        <v>73</v>
+      </c>
+      <c r="C70" t="b">
+        <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
       </c>
       <c r="F70" t="b">
-        <v>0</v>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B71" t="s">
-        <v>88</v>
-      </c>
-      <c r="C71" t="s">
-        <v>114</v>
+        <v>74</v>
+      </c>
+      <c r="C71" t="b">
+        <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="b">
         <v>1</v>
       </c>
-      <c r="G71" t="b">
-        <v>0</v>
+      <c r="G71" t="s">
+        <v>95</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/dist/rd3_portal.xlsx
+++ b/dist/rd3_portal.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="134">
   <si>
     <t>name</t>
   </si>
@@ -33,76 +33,169 @@
     <t>rd3_portal</t>
   </si>
   <si>
-    <t>rd3_portal_novelomics</t>
+    <t>rd3_portal_release</t>
   </si>
   <si>
     <t>RD3 Portal Data</t>
   </si>
   <si>
-    <t>Novel Omics</t>
+    <t>Releases</t>
   </si>
   <si>
     <t>RD3 portal, containing data submitted by CNAG (v1.2.0, 2022-11-29)</t>
   </si>
   <si>
-    <t>Staging tables for novel omics sample and experiment metadata (v1.7.0, 2024-04-05)</t>
+    <t>Intermediate tables for RD3 releases (v1.4.0, 2024-04-23)</t>
   </si>
   <si>
     <t>package</t>
   </si>
   <si>
-    <t>experiment</t>
-  </si>
-  <si>
-    <t>shipment</t>
-  </si>
-  <si>
-    <t>datasets</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Shipment</t>
-  </si>
-  <si>
-    <t>Datasets</t>
-  </si>
-  <si>
-    <t>Staging table for experiment metadata (manifest file)</t>
-  </si>
-  <si>
-    <t>Staging table for sample metadata</t>
-  </si>
-  <si>
-    <t>Link between EGA datasets and runs/analyses</t>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>extends</t>
+  </si>
+  <si>
+    <t>attrTmplate</t>
+  </si>
+  <si>
+    <t>exprTemplate</t>
+  </si>
+  <si>
+    <t>patches</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>experiments</t>
+  </si>
+  <si>
+    <t>df1</t>
+  </si>
+  <si>
+    <t>All patches</t>
+  </si>
+  <si>
+    <t>New Metadata</t>
+  </si>
+  <si>
+    <t>Experiments</t>
+  </si>
+  <si>
+    <t>Data Freeze 1 Reanalysis</t>
+  </si>
+  <si>
+    <t>Attribute template for new RD3 Data Freezes</t>
+  </si>
+  <si>
+    <t>template for experiments</t>
+  </si>
+  <si>
+    <t>Staging table for all patches</t>
+  </si>
+  <si>
+    <t>New metadata that was found in the "All patches" table</t>
+  </si>
+  <si>
+    <t>Staging table for experiment metadata</t>
+  </si>
+  <si>
+    <t>rd3_portal_release_attrTmplate</t>
+  </si>
+  <si>
+    <t>rd3_portal_release_exprTemplate</t>
   </si>
   <si>
     <t>entity</t>
   </si>
   <si>
+    <t>dataType</t>
+  </si>
+  <si>
+    <t>idAttribute</t>
+  </si>
+  <si>
     <t>auto</t>
   </si>
   <si>
-    <t>dataType</t>
-  </si>
-  <si>
-    <t>idAttribute</t>
-  </si>
-  <si>
     <t>nillable</t>
   </si>
   <si>
     <t>defaultValue</t>
   </si>
   <si>
-    <t>rd3_portal_novelomics_experiment</t>
-  </si>
-  <si>
-    <t>rd3_portal_novelomics_shipment</t>
-  </si>
-  <si>
-    <t>rd3_portal_novelomics_datasets</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>organisation_name</t>
+  </si>
+  <si>
+    <t>organisation_identifier</t>
+  </si>
+  <si>
+    <t>samples_tissueType</t>
+  </si>
+  <si>
+    <t>samples_id</t>
+  </si>
+  <si>
+    <t>samples_alternativeIdentifier</t>
+  </si>
+  <si>
+    <t>samples_subject</t>
+  </si>
+  <si>
+    <t>samples_organisation</t>
+  </si>
+  <si>
+    <t>samples_ERN</t>
+  </si>
+  <si>
+    <t>labinfo_library</t>
+  </si>
+  <si>
+    <t>labinfo_sequencer</t>
+  </si>
+  <si>
+    <t>labinfo_seqType</t>
+  </si>
+  <si>
+    <t>labinfo_id</t>
+  </si>
+  <si>
+    <t>labinfo_sample</t>
+  </si>
+  <si>
+    <t>labinfo_capture</t>
+  </si>
+  <si>
+    <t>labinfo_libraryType</t>
+  </si>
+  <si>
+    <t>subject_id</t>
+  </si>
+  <si>
+    <t>subject_organisation</t>
+  </si>
+  <si>
+    <t>subject_ERN</t>
+  </si>
+  <si>
+    <t>subject_solved</t>
+  </si>
+  <si>
+    <t>subject_date_solved</t>
+  </si>
+  <si>
+    <t>subject_matchMakerPermission</t>
+  </si>
+  <si>
+    <t>subject_recontact</t>
+  </si>
+  <si>
+    <t>processed</t>
   </si>
   <si>
     <t>file_path</t>
@@ -141,9 +234,6 @@
     <t>gender</t>
   </si>
   <si>
-    <t>subject_id</t>
-  </si>
-  <si>
     <t>phenotype</t>
   </si>
   <si>
@@ -240,94 +330,94 @@
     <t>date_created</t>
   </si>
   <si>
-    <t>processed</t>
-  </si>
-  <si>
     <t>molgenis_id</t>
   </si>
   <si>
-    <t>participant_subject</t>
-  </si>
-  <si>
-    <t>type_of_analysis</t>
-  </si>
-  <si>
-    <t>solve_rd_experiment_id</t>
-  </si>
-  <si>
-    <t>batch</t>
-  </si>
-  <si>
-    <t>organisation</t>
+    <t>auto generated molgenis ID</t>
+  </si>
+  <si>
+    <t>name of the organisation. E.g. University Medical Center Groningen</t>
+  </si>
+  <si>
+    <t>identifier of the organisation. E.g. UMCG¬†</t>
+  </si>
+  <si>
+    <t>Tissue Types</t>
+  </si>
+  <si>
+    <t>unique identifier (sampleID + patch)</t>
+  </si>
+  <si>
+    <t>alternative identifier used by sample provider</t>
+  </si>
+  <si>
+    <t>reference to the subject from which samples was extracted</t>
+  </si>
+  <si>
+    <t>Name of the organisation. E.g. University Medical Center Groningen</t>
   </si>
   <si>
     <t>ERN</t>
   </si>
   <si>
-    <t>CNAG_barcode</t>
-  </si>
-  <si>
-    <t>alternative_sample_identifier</t>
-  </si>
-  <si>
-    <t>pathological_state</t>
-  </si>
-  <si>
-    <t>tumor_cell_fraction</t>
-  </si>
-  <si>
-    <t>anatomical_location</t>
-  </si>
-  <si>
-    <t>extracted_protocol</t>
-  </si>
-  <si>
-    <t>data_ega_id</t>
-  </si>
-  <si>
-    <t>run_or_analysis_ega_id</t>
-  </si>
-  <si>
-    <t>reference_type</t>
+    <t>link to more information about the library used in experiment</t>
+  </si>
+  <si>
+    <t>sequencer info</t>
+  </si>
+  <si>
+    <t>sequencing technique types (e.g., WGS, WXS)</t>
+  </si>
+  <si>
+    <t>Unique identifier (experimentID + patch)</t>
+  </si>
+  <si>
+    <t>all samples run in this condition, using the same barcode</t>
+  </si>
+  <si>
+    <t>enrichment kit</t>
+  </si>
+  <si>
+    <t>library source, e.g., Genomic/Transcriptomic</t>
+  </si>
+  <si>
+    <t>Unique identifier (subjectID + patch)</t>
+  </si>
+  <si>
+    <t>name of the organisation that submitted the subject</t>
+  </si>
+  <si>
+    <t>solved case for solve-RD (true/false)</t>
+  </si>
+  <si>
+    <t>Date case was solved</t>
+  </si>
+  <si>
+    <t>permission is given for match making (boolean)</t>
+  </si>
+  <si>
+    <t>Recontact is allowed in case of incidental findings</t>
+  </si>
+  <si>
+    <t>If True, the record has been processed</t>
+  </si>
+  <si>
+    <t>Date the data was uploaded into RD3</t>
+  </si>
+  <si>
+    <t>indication if the the record has been processed into an RD3 release</t>
+  </si>
+  <si>
+    <t>an internal, auto generated identifier</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>datetime</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>Date the data was uploaded into RD3</t>
-  </si>
-  <si>
-    <t>indication if the the record has been processed into an RD3 release</t>
-  </si>
-  <si>
-    <t>an internal, auto generated identifier</t>
-  </si>
-  <si>
-    <t>The analysis that was performed; e.g., SR-WGS, Deep-WES, RNAseq, etc.</t>
-  </si>
-  <si>
-    <t>corresponding experiment identifier</t>
-  </si>
-  <si>
-    <t>the submitting institution and submitter initials</t>
-  </si>
-  <si>
-    <t>associated ERN</t>
-  </si>
-  <si>
-    <t>alternative identifiers associated with the sample</t>
-  </si>
-  <si>
-    <t>affected state of the material</t>
-  </si>
-  <si>
-    <t>the percentange of tumor cells compared to total cells present in this material</t>
   </si>
 </sst>
 </file>
@@ -737,13 +827,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -756,47 +846,107 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>23</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>19</v>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -814,1447 +964,1477 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="b">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="b">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>118</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="b">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>119</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" t="b">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="b">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="b">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>113</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" t="b">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" t="b">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>124</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" t="b">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" t="b">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>126</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s">
         <v>52</v>
       </c>
-      <c r="C25" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" t="b">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" t="b">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" t="b">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" t="b">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" t="b">
-        <v>0</v>
-      </c>
-      <c r="D31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" t="b">
-        <v>0</v>
-      </c>
-      <c r="D32" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" t="b">
-        <v>0</v>
-      </c>
-      <c r="D33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" t="b">
-        <v>0</v>
-      </c>
-      <c r="D34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" t="b">
-        <v>0</v>
-      </c>
-      <c r="D35" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" t="b">
-        <v>0</v>
-      </c>
-      <c r="D36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" t="b">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" t="b">
-        <v>0</v>
-      </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
       </c>
       <c r="F38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" t="b">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" t="b">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D40" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" t="b">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
       <c r="F41" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" t="b">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D42" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
       <c r="F42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" t="b">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D43" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
       <c r="F43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" t="b">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" t="b">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D45" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
       <c r="F45" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" t="b">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="D46" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
       </c>
       <c r="F46" t="b">
-        <v>1</v>
-      </c>
-      <c r="G46" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" t="b">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="b">
-        <v>1</v>
-      </c>
-      <c r="G47" t="s">
-        <v>95</v>
-      </c>
-      <c r="H47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" t="b">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="D48" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
-      <c r="G48" t="s">
-        <v>96</v>
+      <c r="G48" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" t="b">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D49" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
       </c>
       <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" t="b">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D50" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
       </c>
       <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" t="b">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D51" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
       <c r="F51" t="b">
-        <v>1</v>
-      </c>
-      <c r="G51" t="s">
-        <v>97</v>
+        <v>0</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" t="b">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D52" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
       </c>
       <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" t="b">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D53" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
       </c>
       <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" t="b">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D54" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="b">
-        <v>1</v>
-      </c>
-      <c r="G54" t="s">
-        <v>98</v>
+        <v>0</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" t="b">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D55" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
       </c>
       <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" t="b">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="D56" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
       </c>
       <c r="F56" t="b">
-        <v>1</v>
-      </c>
-      <c r="G56" t="s">
-        <v>99</v>
+        <v>0</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" t="b">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D57" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
       </c>
       <c r="F57" t="b">
-        <v>1</v>
-      </c>
-      <c r="G57" t="s">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
-      </c>
-      <c r="C58" t="b">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
       </c>
       <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" t="b">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D59" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
       </c>
       <c r="F59" t="b">
-        <v>1</v>
-      </c>
-      <c r="G59" t="s">
-        <v>101</v>
+        <v>0</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" t="b">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="D60" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
       </c>
       <c r="F60" t="b">
-        <v>1</v>
-      </c>
-      <c r="G60" t="s">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
-      </c>
-      <c r="C61" t="b">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D61" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
       </c>
       <c r="F61" t="b">
-        <v>1</v>
-      </c>
-      <c r="G61" t="s">
-        <v>103</v>
+        <v>0</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" t="b">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D62" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
       </c>
       <c r="F62" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
-      </c>
-      <c r="C63" t="b">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D63" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
       <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64" t="b">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="D64" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
       </c>
       <c r="F64" t="b">
-        <v>1</v>
-      </c>
-      <c r="G64" t="s">
-        <v>94</v>
+        <v>0</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65" t="b">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="D65" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
       </c>
       <c r="F65" t="b">
-        <v>1</v>
-      </c>
-      <c r="G65" t="s">
-        <v>95</v>
-      </c>
-      <c r="H65" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66" t="b">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="D66" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
-      <c r="G66" t="s">
-        <v>96</v>
+      <c r="G66" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" t="b">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D67" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
       </c>
       <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B68" t="s">
-        <v>89</v>
-      </c>
-      <c r="C68" t="b">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="D68" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
       </c>
       <c r="F68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
-      </c>
-      <c r="C69" t="b">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="D69" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
       </c>
       <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
-      </c>
-      <c r="C70" t="b">
-        <v>1</v>
+        <v>103</v>
+      </c>
+      <c r="C70" t="s">
+        <v>128</v>
       </c>
       <c r="D70" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
@@ -2262,31 +2442,31 @@
       <c r="F70" t="b">
         <v>1</v>
       </c>
-      <c r="G70" t="s">
-        <v>94</v>
+      <c r="G70" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
-      </c>
-      <c r="C71" t="b">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="C71" t="s">
+        <v>129</v>
       </c>
       <c r="D71" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
       <c r="F71" t="b">
-        <v>1</v>
-      </c>
-      <c r="G71" t="s">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -2294,25 +2474,25 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72" t="b">
-        <v>1</v>
+        <v>104</v>
+      </c>
+      <c r="C72" t="s">
+        <v>130</v>
       </c>
       <c r="D72" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="b">
-        <v>0</v>
-      </c>
-      <c r="G72" t="s">
-        <v>96</v>
+        <v>1</v>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
